--- a/data/cardform.xlsx
+++ b/data/cardform.xlsx
@@ -2476,38 +2476,6 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>永豐銀行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>無限卡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
       <t>王道銀行</t>
     </r>
     <r>
@@ -10956,6 +10924,38 @@
         <charset val="136"/>
       </rPr>
       <t>弘安藥妝聯名卡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>永豐銀行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無限卡</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10964,8 +10964,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;NT$&quot;#,##0_);\(&quot;NT$&quot;#,##0\)"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -11055,7 +11056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11079,6 +11080,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11352,7 +11356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11362,8 +11366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11397,7 +11401,7 @@
     <col min="31" max="31" width="29.875" customWidth="1"/>
     <col min="32" max="32" width="29" customWidth="1"/>
     <col min="33" max="33" width="33.375" customWidth="1"/>
-    <col min="34" max="34" width="25.375" customWidth="1"/>
+    <col min="34" max="34" width="25.375" style="8" customWidth="1"/>
     <col min="35" max="35" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11499,9 +11503,9 @@
         <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>576</v>
-      </c>
-      <c r="AH1" t="s">
+        <v>575</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AI1" t="s">
@@ -11557,8 +11561,11 @@
       <c r="AE2">
         <v>500</v>
       </c>
+      <c r="AH2" s="8">
+        <v>360000</v>
+      </c>
       <c r="AI2" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11586,8 +11593,11 @@
       <c r="AE3" t="s">
         <v>39</v>
       </c>
+      <c r="AH3" s="8">
+        <v>0</v>
+      </c>
       <c r="AI3" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11639,8 +11649,11 @@
       <c r="AE4">
         <v>1500</v>
       </c>
+      <c r="AH4" s="8">
+        <v>250000</v>
+      </c>
       <c r="AI4" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11671,8 +11684,11 @@
       <c r="AG5" t="s">
         <v>254</v>
       </c>
+      <c r="AH5" s="8">
+        <v>0</v>
+      </c>
       <c r="AI5" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11700,8 +11716,11 @@
       <c r="AE6">
         <v>1116</v>
       </c>
+      <c r="AH6" s="8">
+        <v>0</v>
+      </c>
       <c r="AI6" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11744,8 +11763,11 @@
       <c r="AG7" t="s">
         <v>255</v>
       </c>
+      <c r="AH7" s="8">
+        <v>650000</v>
+      </c>
       <c r="AI7" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11767,8 +11789,11 @@
       <c r="I8" t="s">
         <v>56</v>
       </c>
+      <c r="AH8" s="8">
+        <v>0</v>
+      </c>
       <c r="AI8" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11796,8 +11821,11 @@
       <c r="AE9" t="s">
         <v>39</v>
       </c>
+      <c r="AH9" s="8">
+        <v>230000</v>
+      </c>
       <c r="AI9" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11819,8 +11847,11 @@
       <c r="I10" t="s">
         <v>51</v>
       </c>
+      <c r="AH10" s="8">
+        <v>0</v>
+      </c>
       <c r="AI10" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11842,8 +11873,11 @@
       <c r="I11" t="s">
         <v>51</v>
       </c>
+      <c r="AH11" s="8">
+        <v>0</v>
+      </c>
       <c r="AI11" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11865,8 +11899,11 @@
       <c r="I12" t="s">
         <v>51</v>
       </c>
+      <c r="AH12" s="8">
+        <v>220000</v>
+      </c>
       <c r="AI12" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11888,8 +11925,11 @@
       <c r="I13" t="s">
         <v>63</v>
       </c>
+      <c r="AH13" s="8">
+        <v>250000</v>
+      </c>
       <c r="AI13" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11941,8 +11981,11 @@
       <c r="AE14">
         <v>300</v>
       </c>
+      <c r="AH14" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI14" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11985,8 +12028,11 @@
       <c r="AC15" t="s">
         <v>63</v>
       </c>
+      <c r="AH15" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI15" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12008,8 +12054,11 @@
       <c r="I16" t="s">
         <v>51</v>
       </c>
+      <c r="AH16" s="8">
+        <v>700000</v>
+      </c>
       <c r="AI16" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12055,8 +12104,11 @@
       <c r="U17" t="s">
         <v>226</v>
       </c>
+      <c r="AH17" s="8">
+        <v>0</v>
+      </c>
       <c r="AI17" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12085,10 +12137,13 @@
         <v>500</v>
       </c>
       <c r="AG18" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>200000</v>
       </c>
       <c r="AI18" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12110,8 +12165,11 @@
       <c r="I19" t="s">
         <v>51</v>
       </c>
+      <c r="AH19" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI19" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12133,8 +12191,11 @@
       <c r="I20" t="s">
         <v>71</v>
       </c>
+      <c r="AH20" s="8">
+        <v>0</v>
+      </c>
       <c r="AI20" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12177,8 +12238,11 @@
       <c r="AG21" t="s">
         <v>256</v>
       </c>
+      <c r="AH21" s="8">
+        <v>220000</v>
+      </c>
       <c r="AI21" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12200,8 +12264,11 @@
       <c r="I22" t="s">
         <v>63</v>
       </c>
+      <c r="AH22" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI22" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12223,8 +12290,11 @@
       <c r="I23" t="s">
         <v>51</v>
       </c>
+      <c r="AH23" s="8">
+        <v>0</v>
+      </c>
       <c r="AI23" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12246,8 +12316,11 @@
       <c r="I24" t="s">
         <v>51</v>
       </c>
+      <c r="AH24" s="8">
+        <v>0</v>
+      </c>
       <c r="AI24" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12269,8 +12342,11 @@
       <c r="I25" t="s">
         <v>51</v>
       </c>
+      <c r="AH25" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI25" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12292,8 +12368,11 @@
       <c r="I26" t="s">
         <v>51</v>
       </c>
+      <c r="AH26" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI26" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12315,8 +12394,11 @@
       <c r="I27" t="s">
         <v>51</v>
       </c>
+      <c r="AH27" s="8">
+        <v>0</v>
+      </c>
       <c r="AI27" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12338,8 +12420,11 @@
       <c r="I28" t="s">
         <v>51</v>
       </c>
+      <c r="AH28" s="8">
+        <v>700000</v>
+      </c>
       <c r="AI28" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12361,8 +12446,11 @@
       <c r="I29" t="s">
         <v>40</v>
       </c>
+      <c r="AH29" s="8">
+        <v>220000</v>
+      </c>
       <c r="AI29" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12384,8 +12472,11 @@
       <c r="I30" t="s">
         <v>51</v>
       </c>
+      <c r="AH30" s="8">
+        <v>300000</v>
+      </c>
       <c r="AI30" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12407,8 +12498,11 @@
       <c r="I31" t="s">
         <v>51</v>
       </c>
+      <c r="AH31" s="8">
+        <v>0</v>
+      </c>
       <c r="AI31" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12430,8 +12524,11 @@
       <c r="I32" t="s">
         <v>63</v>
       </c>
+      <c r="AH32" s="8">
+        <v>0</v>
+      </c>
       <c r="AI32" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12453,8 +12550,11 @@
       <c r="I33" t="s">
         <v>74</v>
       </c>
+      <c r="AH33" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI33" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12476,8 +12576,11 @@
       <c r="I34" t="s">
         <v>51</v>
       </c>
+      <c r="AH34" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI34" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12511,8 +12614,11 @@
       <c r="Y35">
         <v>0</v>
       </c>
+      <c r="AH35" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI35" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12534,8 +12640,11 @@
       <c r="I36" t="s">
         <v>51</v>
       </c>
+      <c r="AH36" s="8">
+        <v>0</v>
+      </c>
       <c r="AI36" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12557,8 +12666,11 @@
       <c r="I37" t="s">
         <v>51</v>
       </c>
+      <c r="AH37" s="8">
+        <v>0</v>
+      </c>
       <c r="AI37" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12580,8 +12692,11 @@
       <c r="I38" t="s">
         <v>51</v>
       </c>
+      <c r="AH38" s="8">
+        <v>1500000</v>
+      </c>
       <c r="AI38" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12603,8 +12718,11 @@
       <c r="I39" t="s">
         <v>51</v>
       </c>
+      <c r="AH39" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI39" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12632,8 +12750,11 @@
       <c r="AE40">
         <v>500</v>
       </c>
+      <c r="AH40" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI40" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12667,8 +12788,11 @@
       <c r="Y41">
         <v>0</v>
       </c>
+      <c r="AH41" s="8">
+        <v>0</v>
+      </c>
       <c r="AI41" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12690,8 +12814,11 @@
       <c r="I42" t="s">
         <v>51</v>
       </c>
+      <c r="AH42" s="8">
+        <v>0</v>
+      </c>
       <c r="AI42" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12713,8 +12840,11 @@
       <c r="I43" t="s">
         <v>51</v>
       </c>
+      <c r="AH43" s="8">
+        <v>0</v>
+      </c>
       <c r="AI43" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12742,8 +12872,11 @@
       <c r="AE44" t="s">
         <v>39</v>
       </c>
+      <c r="AH44" s="8">
+        <v>0</v>
+      </c>
       <c r="AI44" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12774,8 +12907,11 @@
       <c r="AG45" t="s">
         <v>257</v>
       </c>
+      <c r="AH45" s="8">
+        <v>0</v>
+      </c>
       <c r="AI45" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12797,8 +12933,11 @@
       <c r="I46" t="s">
         <v>83</v>
       </c>
+      <c r="AH46" s="8">
+        <v>500000</v>
+      </c>
       <c r="AI46" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12820,8 +12959,11 @@
       <c r="I47" t="s">
         <v>51</v>
       </c>
+      <c r="AH47" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI47" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12858,8 +13000,11 @@
       <c r="AE48">
         <v>300</v>
       </c>
+      <c r="AH48" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI48" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12887,13 +13032,16 @@
       <c r="AE49">
         <v>500</v>
       </c>
+      <c r="AH49" s="8">
+        <v>500000</v>
+      </c>
       <c r="AI49" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>316</v>
+        <v>578</v>
       </c>
       <c r="D50" s="4">
         <v>20000</v>
@@ -12910,13 +13058,16 @@
       <c r="I50" t="s">
         <v>51</v>
       </c>
+      <c r="AH50" s="8">
+        <v>3000000</v>
+      </c>
       <c r="AI50" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="51" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D51" t="s">
         <v>34</v>
@@ -12928,21 +13079,24 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="AH51" s="8">
+        <v>0</v>
       </c>
       <c r="AI51" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D52" t="s">
         <v>34</v>
@@ -12959,13 +13113,16 @@
       <c r="I52" t="s">
         <v>87</v>
       </c>
+      <c r="AH52" s="8">
+        <v>0</v>
+      </c>
       <c r="AI52" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -13006,13 +13163,16 @@
       <c r="Y53" t="s">
         <v>238</v>
       </c>
+      <c r="AH53" s="8">
+        <v>240000</v>
+      </c>
       <c r="AI53" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="54" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D54" s="4">
         <v>2000</v>
@@ -13035,13 +13195,16 @@
       <c r="AE54">
         <v>500</v>
       </c>
+      <c r="AH54" s="8">
+        <v>650000</v>
+      </c>
       <c r="AI54" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D55" t="s">
         <v>34</v>
@@ -13094,13 +13257,16 @@
       <c r="Y55">
         <v>0</v>
       </c>
+      <c r="AH55" s="8">
+        <v>0</v>
+      </c>
       <c r="AI55" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D56" t="s">
         <v>34</v>
@@ -13126,13 +13292,16 @@
       <c r="AC56" t="s">
         <v>63</v>
       </c>
+      <c r="AH56" s="8">
+        <v>150000</v>
+      </c>
       <c r="AI56" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D57" s="4">
         <v>3000</v>
@@ -13170,13 +13339,16 @@
       <c r="AG57" t="s">
         <v>258</v>
       </c>
+      <c r="AH57" s="8">
+        <v>0</v>
+      </c>
       <c r="AI57" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D58" s="4">
         <v>3000</v>
@@ -13193,13 +13365,16 @@
       <c r="I58" t="s">
         <v>51</v>
       </c>
+      <c r="AH58" s="8">
+        <v>0</v>
+      </c>
       <c r="AI58" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -13237,13 +13412,16 @@
       <c r="AC59" t="s">
         <v>63</v>
       </c>
+      <c r="AH59" s="8">
+        <v>0</v>
+      </c>
       <c r="AI59" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="60" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D60" s="4">
         <v>10000</v>
@@ -13260,13 +13438,16 @@
       <c r="I60" t="s">
         <v>94</v>
       </c>
+      <c r="AH60" s="8">
+        <v>1400000</v>
+      </c>
       <c r="AI60" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D61" s="4">
         <v>30000</v>
@@ -13283,13 +13464,16 @@
       <c r="I61" t="s">
         <v>94</v>
       </c>
+      <c r="AH61" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI61" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D62" s="4">
         <v>25000</v>
@@ -13306,13 +13490,16 @@
       <c r="I62" t="s">
         <v>51</v>
       </c>
+      <c r="AH62" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI62" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D63" s="4">
         <v>3000</v>
@@ -13335,13 +13522,16 @@
       <c r="AE63">
         <v>500</v>
       </c>
+      <c r="AH63" s="8">
+        <v>250000</v>
+      </c>
       <c r="AI63" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D64" s="4">
         <v>3000</v>
@@ -13358,13 +13548,16 @@
       <c r="I64" t="s">
         <v>63</v>
       </c>
+      <c r="AH64" s="8">
+        <v>250000</v>
+      </c>
       <c r="AI64" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="65" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D65" t="s">
         <v>34</v>
@@ -13390,13 +13583,16 @@
       <c r="AC65" t="s">
         <v>245</v>
       </c>
+      <c r="AH65" s="8">
+        <v>220000</v>
+      </c>
       <c r="AI65" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D66" t="s">
         <v>34</v>
@@ -13413,13 +13609,16 @@
       <c r="I66" t="s">
         <v>51</v>
       </c>
+      <c r="AH66" s="8">
+        <v>0</v>
+      </c>
       <c r="AI66" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D67" s="4">
         <v>2000</v>
@@ -13436,13 +13635,16 @@
       <c r="I67" t="s">
         <v>51</v>
       </c>
+      <c r="AH67" s="8">
+        <v>0</v>
+      </c>
       <c r="AI67" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D68" s="4">
         <v>3000</v>
@@ -13459,13 +13661,16 @@
       <c r="I68" t="s">
         <v>63</v>
       </c>
+      <c r="AH68" s="8">
+        <v>0</v>
+      </c>
       <c r="AI68" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
@@ -13527,13 +13732,16 @@
       <c r="AC69">
         <v>0</v>
       </c>
+      <c r="AH69" s="8">
+        <v>0</v>
+      </c>
       <c r="AI69" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D70" s="4">
         <v>300</v>
@@ -13550,13 +13758,16 @@
       <c r="I70" t="s">
         <v>51</v>
       </c>
+      <c r="AH70" s="8">
+        <v>0</v>
+      </c>
       <c r="AI70" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D71" s="4">
         <v>1800</v>
@@ -13582,13 +13793,16 @@
       <c r="AC71" t="s">
         <v>247</v>
       </c>
+      <c r="AH71" s="8">
+        <v>0</v>
+      </c>
       <c r="AI71" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D72" s="4">
         <v>2400</v>
@@ -13629,13 +13843,16 @@
       <c r="Y72" t="s">
         <v>239</v>
       </c>
+      <c r="AH72" s="8">
+        <v>250000</v>
+      </c>
       <c r="AI72" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D73" s="4">
         <v>1800</v>
@@ -13664,13 +13881,16 @@
       <c r="U73" t="s">
         <v>219</v>
       </c>
+      <c r="AH73" s="8">
+        <v>0</v>
+      </c>
       <c r="AI73" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D74" s="4">
         <v>2400</v>
@@ -13687,13 +13907,16 @@
       <c r="I74" t="s">
         <v>100</v>
       </c>
+      <c r="AH74" s="8">
+        <v>0</v>
+      </c>
       <c r="AI74" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D75" s="4">
         <v>2400</v>
@@ -13710,13 +13933,16 @@
       <c r="I75" t="s">
         <v>101</v>
       </c>
+      <c r="AH75" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI75" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D76" s="4">
         <v>300</v>
@@ -13733,13 +13959,16 @@
       <c r="I76" t="s">
         <v>102</v>
       </c>
+      <c r="AH76" s="8">
+        <v>0</v>
+      </c>
       <c r="AI76" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D77" s="4">
         <v>1800</v>
@@ -13756,13 +13985,16 @@
       <c r="I77" t="s">
         <v>51</v>
       </c>
+      <c r="AH77" s="8">
+        <v>0</v>
+      </c>
       <c r="AI77" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D78" t="s">
         <v>34</v>
@@ -13809,13 +14041,16 @@
       <c r="AE78">
         <v>500</v>
       </c>
+      <c r="AH78" s="8">
+        <v>220000</v>
+      </c>
       <c r="AI78" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D79" t="s">
         <v>34</v>
@@ -13844,13 +14079,16 @@
       <c r="Y79">
         <v>0</v>
       </c>
+      <c r="AH79" s="8">
+        <v>0</v>
+      </c>
       <c r="AI79" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D80" s="4">
         <v>0</v>
@@ -13873,13 +14111,16 @@
       <c r="AE80">
         <v>200</v>
       </c>
+      <c r="AH80" s="8">
+        <v>0</v>
+      </c>
       <c r="AI80" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D81" s="4">
         <v>1200</v>
@@ -13896,13 +14137,16 @@
       <c r="I81" t="s">
         <v>51</v>
       </c>
+      <c r="AH81" s="8">
+        <v>0</v>
+      </c>
       <c r="AI81" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D82" s="4">
         <v>1200</v>
@@ -13919,13 +14163,16 @@
       <c r="I82" t="s">
         <v>51</v>
       </c>
+      <c r="AH82" s="8">
+        <v>0</v>
+      </c>
       <c r="AI82" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D83" s="4">
         <v>1800</v>
@@ -13942,13 +14189,16 @@
       <c r="I83" t="s">
         <v>51</v>
       </c>
+      <c r="AH83" s="8">
+        <v>0</v>
+      </c>
       <c r="AI83" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D84" s="4">
         <v>1800</v>
@@ -13965,13 +14215,16 @@
       <c r="I84" t="s">
         <v>51</v>
       </c>
+      <c r="AH84" s="8">
+        <v>0</v>
+      </c>
       <c r="AI84" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="85" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D85" s="4">
         <v>1800</v>
@@ -14012,13 +14265,16 @@
       <c r="U85" t="s">
         <v>220</v>
       </c>
+      <c r="AH85" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI85" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D86" s="4">
         <v>2000</v>
@@ -14035,13 +14291,16 @@
       <c r="I86" t="s">
         <v>51</v>
       </c>
+      <c r="AH86" s="8">
+        <v>0</v>
+      </c>
       <c r="AI86" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D87" s="4">
         <v>3000</v>
@@ -14058,13 +14317,16 @@
       <c r="I87" t="s">
         <v>51</v>
       </c>
+      <c r="AH87" s="8">
+        <v>0</v>
+      </c>
       <c r="AI87" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="88" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D88" s="4">
         <v>3000</v>
@@ -14081,13 +14343,16 @@
       <c r="I88" t="s">
         <v>108</v>
       </c>
+      <c r="AH88" s="8">
+        <v>500000</v>
+      </c>
       <c r="AI88" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="89" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D89" s="4">
         <v>900</v>
@@ -14104,13 +14369,16 @@
       <c r="I89" t="s">
         <v>51</v>
       </c>
+      <c r="AH89" s="8">
+        <v>0</v>
+      </c>
       <c r="AI89" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="90" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D90" t="s">
         <v>34</v>
@@ -14133,13 +14401,16 @@
       <c r="AE90">
         <v>500</v>
       </c>
+      <c r="AH90" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI90" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D91" s="4">
         <v>1800</v>
@@ -14156,13 +14427,16 @@
       <c r="I91" t="s">
         <v>51</v>
       </c>
+      <c r="AH91" s="8">
+        <v>0</v>
+      </c>
       <c r="AI91" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D92" t="s">
         <v>34</v>
@@ -14191,13 +14465,16 @@
       <c r="M92" t="s">
         <v>169</v>
       </c>
+      <c r="AH92" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI92" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D93" s="4">
         <v>10000</v>
@@ -14214,13 +14491,16 @@
       <c r="I93" t="s">
         <v>51</v>
       </c>
+      <c r="AH93" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI93" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D94" s="4">
         <v>0</v>
@@ -14237,13 +14517,16 @@
       <c r="I94" t="s">
         <v>51</v>
       </c>
+      <c r="AH94" s="8">
+        <v>0</v>
+      </c>
       <c r="AI94" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="95" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D95" s="4">
         <v>0</v>
@@ -14260,13 +14543,16 @@
       <c r="I95" t="s">
         <v>112</v>
       </c>
+      <c r="AH95" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI95" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D96" t="s">
         <v>34</v>
@@ -14283,13 +14569,16 @@
       <c r="I96" t="s">
         <v>51</v>
       </c>
+      <c r="AH96" s="8">
+        <v>650000</v>
+      </c>
       <c r="AI96" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D97" s="4">
         <v>300</v>
@@ -14306,13 +14595,16 @@
       <c r="I97" t="s">
         <v>51</v>
       </c>
+      <c r="AH97" s="8">
+        <v>0</v>
+      </c>
       <c r="AI97" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="98" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D98" s="4">
         <v>1500</v>
@@ -14347,13 +14639,16 @@
       <c r="AE98" t="s">
         <v>39</v>
       </c>
+      <c r="AH98" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI98" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D99" s="4">
         <v>1500</v>
@@ -14370,13 +14665,16 @@
       <c r="I99" t="s">
         <v>51</v>
       </c>
+      <c r="AH99" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI99" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="100" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D100" s="4">
         <v>3000</v>
@@ -14402,13 +14700,16 @@
       <c r="AC100">
         <v>0</v>
       </c>
+      <c r="AH100" s="8">
+        <v>0</v>
+      </c>
       <c r="AI100" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D101" s="4">
         <v>3000</v>
@@ -14434,13 +14735,16 @@
       <c r="AC101">
         <v>0</v>
       </c>
+      <c r="AH101" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI101" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="102" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D102" t="s">
         <v>34</v>
@@ -14457,13 +14761,16 @@
       <c r="I102" t="s">
         <v>114</v>
       </c>
+      <c r="AH102" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI102" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D103" t="s">
         <v>34</v>
@@ -14480,13 +14787,16 @@
       <c r="I103" t="s">
         <v>116</v>
       </c>
+      <c r="AH103" s="8">
+        <v>0</v>
+      </c>
       <c r="AI103" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="104" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D104" t="s">
         <v>34</v>
@@ -14503,13 +14813,16 @@
       <c r="I104" t="s">
         <v>118</v>
       </c>
+      <c r="AH104" s="8">
+        <v>0</v>
+      </c>
       <c r="AI104" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="105" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D105" t="s">
         <v>34</v>
@@ -14526,13 +14839,16 @@
       <c r="I105" t="s">
         <v>90</v>
       </c>
+      <c r="AH105" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI105" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="106" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D106" s="4">
         <v>1200</v>
@@ -14549,13 +14865,16 @@
       <c r="I106" t="s">
         <v>119</v>
       </c>
+      <c r="AH106" s="8">
+        <v>0</v>
+      </c>
       <c r="AI106" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="107" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D107" s="4">
         <v>1500</v>
@@ -14572,13 +14891,16 @@
       <c r="I107" t="s">
         <v>120</v>
       </c>
+      <c r="AH107" s="8">
+        <v>0</v>
+      </c>
       <c r="AI107" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D108" s="4">
         <v>3600</v>
@@ -14607,13 +14929,16 @@
       <c r="M108" t="s">
         <v>170</v>
       </c>
+      <c r="AH108" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI108" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="109" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D109" t="s">
         <v>34</v>
@@ -14630,13 +14955,16 @@
       <c r="I109" t="s">
         <v>51</v>
       </c>
+      <c r="AH109" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI109" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D110" t="s">
         <v>34</v>
@@ -14653,13 +14981,16 @@
       <c r="I110" t="s">
         <v>51</v>
       </c>
+      <c r="AH110" s="8">
+        <v>0</v>
+      </c>
       <c r="AI110" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="111" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D111" t="s">
         <v>34</v>
@@ -14688,13 +15019,16 @@
       <c r="Q111" t="s">
         <v>202</v>
       </c>
+      <c r="AH111" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI111" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="112" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D112" s="4">
         <v>1500</v>
@@ -14711,13 +15045,16 @@
       <c r="I112" t="s">
         <v>51</v>
       </c>
+      <c r="AH112" s="8">
+        <v>0</v>
+      </c>
       <c r="AI112" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="113" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D113" s="4">
         <v>1500</v>
@@ -14734,13 +15071,16 @@
       <c r="I113" t="s">
         <v>51</v>
       </c>
+      <c r="AH113" s="8">
+        <v>250000</v>
+      </c>
       <c r="AI113" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="114" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D114" s="4">
         <v>1500</v>
@@ -14757,13 +15097,16 @@
       <c r="I114" t="s">
         <v>51</v>
       </c>
+      <c r="AH114" s="8">
+        <v>250000</v>
+      </c>
       <c r="AI114" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="115" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D115" s="4">
         <v>2400</v>
@@ -14780,13 +15123,16 @@
       <c r="I115" t="s">
         <v>122</v>
       </c>
+      <c r="AH115" s="8">
+        <v>0</v>
+      </c>
       <c r="AI115" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="116" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D116" s="4">
         <v>3000</v>
@@ -14803,13 +15149,16 @@
       <c r="I116" t="s">
         <v>123</v>
       </c>
+      <c r="AH116" s="8">
+        <v>0</v>
+      </c>
       <c r="AI116" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="117" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D117" s="4">
         <v>1500</v>
@@ -14838,13 +15187,16 @@
       <c r="Q117" t="s">
         <v>201</v>
       </c>
+      <c r="AH117" s="8">
+        <v>0</v>
+      </c>
       <c r="AI117" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="118" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D118" s="4">
         <v>5000</v>
@@ -14861,13 +15213,16 @@
       <c r="I118" t="s">
         <v>51</v>
       </c>
+      <c r="AH118" s="8">
+        <v>1000000</v>
+      </c>
       <c r="AI118" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="119" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D119" t="s">
         <v>34</v>
@@ -14902,13 +15257,16 @@
       <c r="AE119">
         <v>100</v>
       </c>
+      <c r="AH119" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI119" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="120" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D120" s="4">
         <v>1200</v>
@@ -14925,13 +15283,16 @@
       <c r="I120" t="s">
         <v>51</v>
       </c>
+      <c r="AH120" s="8">
+        <v>0</v>
+      </c>
       <c r="AI120" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="121" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D121" t="s">
         <v>34</v>
@@ -14948,13 +15309,16 @@
       <c r="I121" t="s">
         <v>125</v>
       </c>
+      <c r="AH121" s="8">
+        <v>0</v>
+      </c>
       <c r="AI121" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="122" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D122" t="s">
         <v>34</v>
@@ -14971,13 +15335,16 @@
       <c r="I122" t="s">
         <v>125</v>
       </c>
+      <c r="AH122" s="8">
+        <v>0</v>
+      </c>
       <c r="AI122" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="123" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D123" t="s">
         <v>34</v>
@@ -15012,13 +15379,16 @@
       <c r="AE123">
         <v>300</v>
       </c>
+      <c r="AH123" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI123" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="124" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D124" s="4">
         <v>2000</v>
@@ -15047,13 +15417,16 @@
       <c r="Y124">
         <v>0</v>
       </c>
+      <c r="AH124" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI124" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="125" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D125" s="4">
         <v>300</v>
@@ -15082,13 +15455,16 @@
       <c r="Q125" t="s">
         <v>203</v>
       </c>
+      <c r="AH125" s="8">
+        <v>0</v>
+      </c>
       <c r="AI125" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="126" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D126" s="4">
         <v>300</v>
@@ -15105,13 +15481,16 @@
       <c r="I126" t="s">
         <v>127</v>
       </c>
+      <c r="AH126" s="8">
+        <v>700000</v>
+      </c>
       <c r="AI126" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="127" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D127" s="4">
         <v>1500</v>
@@ -15140,13 +15519,16 @@
       <c r="Q127" t="s">
         <v>203</v>
       </c>
+      <c r="AH127" s="8">
+        <v>700000</v>
+      </c>
       <c r="AI127" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="128" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D128" s="4">
         <v>1200</v>
@@ -15163,13 +15545,16 @@
       <c r="I128" t="s">
         <v>126</v>
       </c>
+      <c r="AH128" s="8">
+        <v>0</v>
+      </c>
       <c r="AI128" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="129" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D129" t="s">
         <v>34</v>
@@ -15186,13 +15571,16 @@
       <c r="I129" t="s">
         <v>128</v>
       </c>
+      <c r="AH129" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI129" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="130" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D130" t="s">
         <v>34</v>
@@ -15221,13 +15609,16 @@
       <c r="Y130">
         <v>0</v>
       </c>
+      <c r="AH130" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI130" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="131" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D131" s="4">
         <v>1200</v>
@@ -15244,13 +15635,16 @@
       <c r="I131" t="s">
         <v>51</v>
       </c>
+      <c r="AH131" s="8">
+        <v>0</v>
+      </c>
       <c r="AI131" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="132" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D132" s="4">
         <v>1200</v>
@@ -15267,13 +15661,16 @@
       <c r="I132" t="s">
         <v>51</v>
       </c>
+      <c r="AH132" s="8">
+        <v>0</v>
+      </c>
       <c r="AI132" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="133" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D133" s="4">
         <v>1800</v>
@@ -15314,13 +15711,16 @@
       <c r="Y133">
         <v>0</v>
       </c>
+      <c r="AH133" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI133" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="134" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D134" t="s">
         <v>34</v>
@@ -15337,13 +15737,16 @@
       <c r="I134" t="s">
         <v>51</v>
       </c>
+      <c r="AH134" s="8">
+        <v>240000</v>
+      </c>
       <c r="AI134" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="135" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D135" s="4">
         <v>1500</v>
@@ -15360,13 +15763,16 @@
       <c r="I135" t="s">
         <v>51</v>
       </c>
+      <c r="AH135" s="8">
+        <v>250000</v>
+      </c>
       <c r="AI135" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="136" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D136" s="4">
         <v>0</v>
@@ -15395,13 +15801,16 @@
       <c r="Q136" t="s">
         <v>203</v>
       </c>
+      <c r="AH136" s="8">
+        <v>0</v>
+      </c>
       <c r="AI136" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="137" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D137" t="s">
         <v>34</v>
@@ -15430,13 +15839,16 @@
       <c r="Q137" t="s">
         <v>202</v>
       </c>
+      <c r="AH137" s="8">
+        <v>0</v>
+      </c>
       <c r="AI137" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="138" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D138" s="4">
         <v>300</v>
@@ -15453,13 +15865,16 @@
       <c r="I138" t="s">
         <v>51</v>
       </c>
+      <c r="AH138" s="8">
+        <v>700000</v>
+      </c>
       <c r="AI138" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="139" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D139" s="4">
         <v>600</v>
@@ -15476,13 +15891,16 @@
       <c r="I139" t="s">
         <v>51</v>
       </c>
+      <c r="AH139" s="8">
+        <v>0</v>
+      </c>
       <c r="AI139" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="140" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D140" s="4">
         <v>1200</v>
@@ -15511,13 +15929,16 @@
       <c r="Q140" t="s">
         <v>204</v>
       </c>
+      <c r="AH140" s="8">
+        <v>0</v>
+      </c>
       <c r="AI140" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="141" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D141" s="4">
         <v>1200</v>
@@ -15546,13 +15967,16 @@
       <c r="U141" t="s">
         <v>230</v>
       </c>
+      <c r="AH141" s="8">
+        <v>0</v>
+      </c>
       <c r="AI141" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="142" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D142" s="4">
         <v>300</v>
@@ -15569,13 +15993,16 @@
       <c r="I142" t="s">
         <v>107</v>
       </c>
+      <c r="AH142" s="8">
+        <v>0</v>
+      </c>
       <c r="AI142" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="143" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D143" t="s">
         <v>34</v>
@@ -15604,13 +16031,16 @@
       <c r="Y143">
         <v>0</v>
       </c>
+      <c r="AH143" s="8">
+        <v>0</v>
+      </c>
       <c r="AI143" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="144" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D144" t="s">
         <v>34</v>
@@ -15639,13 +16069,16 @@
       <c r="M144" t="s">
         <v>169</v>
       </c>
+      <c r="AH144" s="8">
+        <v>0</v>
+      </c>
       <c r="AI144" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="145" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D145" s="4">
         <v>1200</v>
@@ -15686,13 +16119,16 @@
       <c r="Y145">
         <v>0</v>
       </c>
+      <c r="AH145" s="8">
+        <v>0</v>
+      </c>
       <c r="AI145" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="146" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D146" s="4">
         <v>3000</v>
@@ -15721,13 +16157,16 @@
       <c r="Q146" t="s">
         <v>205</v>
       </c>
+      <c r="AH146" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI146" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="147" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D147" t="s">
         <v>34</v>
@@ -15750,13 +16189,16 @@
       <c r="AE147">
         <v>500</v>
       </c>
+      <c r="AH147" s="8">
+        <v>0</v>
+      </c>
       <c r="AI147" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D148" s="4">
         <v>3000</v>
@@ -15782,13 +16224,16 @@
       <c r="AC148" t="s">
         <v>63</v>
       </c>
+      <c r="AH148" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI148" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D149" t="s">
         <v>34</v>
@@ -15817,13 +16262,16 @@
       <c r="Q149" t="s">
         <v>206</v>
       </c>
+      <c r="AH149" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI149" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="150" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D150" s="4">
         <v>0</v>
@@ -15840,13 +16288,16 @@
       <c r="I150" t="s">
         <v>141</v>
       </c>
+      <c r="AH150" s="8">
+        <v>0</v>
+      </c>
       <c r="AI150" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="151" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D151" s="4">
         <v>300</v>
@@ -15863,13 +16314,16 @@
       <c r="I151" t="s">
         <v>142</v>
       </c>
+      <c r="AH151" s="8">
+        <v>700000</v>
+      </c>
       <c r="AI151" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D152" s="4">
         <v>600</v>
@@ -15898,13 +16352,16 @@
       <c r="Q152" t="s">
         <v>205</v>
       </c>
+      <c r="AH152" s="8">
+        <v>0</v>
+      </c>
       <c r="AI152" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="153" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D153" s="4">
         <v>600</v>
@@ -15933,13 +16390,16 @@
       <c r="U153" t="s">
         <v>217</v>
       </c>
+      <c r="AH153" s="8">
+        <v>500000</v>
+      </c>
       <c r="AI153" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D154" s="4">
         <v>1200</v>
@@ -15956,13 +16416,16 @@
       <c r="I154" t="s">
         <v>51</v>
       </c>
+      <c r="AH154" s="8">
+        <v>0</v>
+      </c>
       <c r="AI154" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="155" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D155" s="4">
         <v>2600</v>
@@ -15979,13 +16442,16 @@
       <c r="I155" t="s">
         <v>51</v>
       </c>
+      <c r="AH155" s="8">
+        <v>0</v>
+      </c>
       <c r="AI155" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="156" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D156" s="4">
         <v>3000</v>
@@ -16002,13 +16468,16 @@
       <c r="I156" t="s">
         <v>51</v>
       </c>
+      <c r="AH156" s="8">
+        <v>0</v>
+      </c>
       <c r="AI156" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="157" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D157" s="4">
         <v>1800</v>
@@ -16025,13 +16494,16 @@
       <c r="I157" t="s">
         <v>143</v>
       </c>
+      <c r="AH157" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI157" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="158" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D158" t="s">
         <v>34</v>
@@ -16048,13 +16520,16 @@
       <c r="I158" t="s">
         <v>145</v>
       </c>
+      <c r="AH158" s="8">
+        <v>1800000</v>
+      </c>
       <c r="AI158" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="159" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B159" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D159" t="s">
         <v>34</v>
@@ -16071,13 +16546,16 @@
       <c r="I159" t="s">
         <v>51</v>
       </c>
+      <c r="AH159" s="8">
+        <v>0</v>
+      </c>
       <c r="AI159" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D160" t="s">
         <v>34</v>
@@ -16106,13 +16584,16 @@
       <c r="Q160" t="s">
         <v>202</v>
       </c>
+      <c r="AH160" s="8">
+        <v>0</v>
+      </c>
       <c r="AI160" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D161" t="s">
         <v>34</v>
@@ -16129,13 +16610,16 @@
       <c r="I161" t="s">
         <v>51</v>
       </c>
+      <c r="AH161" s="8">
+        <v>0</v>
+      </c>
       <c r="AI161" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D162" t="s">
         <v>34</v>
@@ -16152,13 +16636,16 @@
       <c r="I162" t="s">
         <v>51</v>
       </c>
+      <c r="AH162" s="8">
+        <v>0</v>
+      </c>
       <c r="AI162" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D163" t="s">
         <v>34</v>
@@ -16175,13 +16662,16 @@
       <c r="I163" t="s">
         <v>51</v>
       </c>
+      <c r="AH163" s="8">
+        <v>0</v>
+      </c>
       <c r="AI163" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D164" t="s">
         <v>34</v>
@@ -16198,13 +16688,16 @@
       <c r="I164" t="s">
         <v>51</v>
       </c>
+      <c r="AH164" s="8">
+        <v>0</v>
+      </c>
       <c r="AI164" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B165" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D165" t="s">
         <v>34</v>
@@ -16221,13 +16714,16 @@
       <c r="I165" t="s">
         <v>51</v>
       </c>
+      <c r="AH165" s="8">
+        <v>0</v>
+      </c>
       <c r="AI165" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D166" t="s">
         <v>34</v>
@@ -16244,13 +16740,16 @@
       <c r="I166" t="s">
         <v>51</v>
       </c>
+      <c r="AH166" s="8">
+        <v>0</v>
+      </c>
       <c r="AI166" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="167" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D167" t="s">
         <v>34</v>
@@ -16267,13 +16766,16 @@
       <c r="I167" t="s">
         <v>51</v>
       </c>
+      <c r="AH167" s="8">
+        <v>0</v>
+      </c>
       <c r="AI167" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B168" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D168" t="s">
         <v>34</v>
@@ -16290,13 +16792,16 @@
       <c r="I168" t="s">
         <v>146</v>
       </c>
+      <c r="AH168" s="8">
+        <v>0</v>
+      </c>
       <c r="AI168" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D169" t="s">
         <v>34</v>
@@ -16313,13 +16818,16 @@
       <c r="I169" t="s">
         <v>51</v>
       </c>
+      <c r="AH169" s="8">
+        <v>0</v>
+      </c>
       <c r="AI169" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B170" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D170" t="s">
         <v>34</v>
@@ -16336,13 +16844,16 @@
       <c r="I170" t="s">
         <v>51</v>
       </c>
+      <c r="AH170" s="8">
+        <v>0</v>
+      </c>
       <c r="AI170" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D171" t="s">
         <v>34</v>
@@ -16359,13 +16870,16 @@
       <c r="I171" t="s">
         <v>51</v>
       </c>
+      <c r="AH171" s="8">
+        <v>0</v>
+      </c>
       <c r="AI171" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D172" t="s">
         <v>34</v>
@@ -16394,13 +16908,16 @@
       <c r="M172" t="s">
         <v>51</v>
       </c>
+      <c r="AH172" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI172" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="173" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D173" t="s">
         <v>34</v>
@@ -16417,13 +16934,16 @@
       <c r="I173" t="s">
         <v>51</v>
       </c>
+      <c r="AH173" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI173" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D174" t="s">
         <v>34</v>
@@ -16440,13 +16960,16 @@
       <c r="I174" t="s">
         <v>149</v>
       </c>
+      <c r="AH174" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI174" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="175" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D175" t="s">
         <v>34</v>
@@ -16475,13 +16998,16 @@
       <c r="M175" t="s">
         <v>171</v>
       </c>
+      <c r="AH175" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI175" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D176" t="s">
         <v>34</v>
@@ -16510,13 +17036,16 @@
       <c r="Q176" t="s">
         <v>204</v>
       </c>
+      <c r="AH176" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI176" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D177" t="s">
         <v>34</v>
@@ -16533,13 +17062,16 @@
       <c r="I177" t="s">
         <v>51</v>
       </c>
+      <c r="AH177" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI177" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B178" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D178" t="s">
         <v>34</v>
@@ -16574,13 +17106,16 @@
       <c r="AE178">
         <v>1300</v>
       </c>
+      <c r="AH178" s="8">
+        <v>220000</v>
+      </c>
       <c r="AI178" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="179" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D179" t="s">
         <v>34</v>
@@ -16606,13 +17141,16 @@
       <c r="AC179" t="s">
         <v>249</v>
       </c>
+      <c r="AH179" s="8">
+        <v>240000</v>
+      </c>
       <c r="AI179" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="180" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B180" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D180" t="s">
         <v>34</v>
@@ -16629,13 +17167,16 @@
       <c r="I180" t="s">
         <v>51</v>
       </c>
+      <c r="AH180" s="8">
+        <v>240000</v>
+      </c>
       <c r="AI180" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="181" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D181" t="s">
         <v>34</v>
@@ -16664,13 +17205,16 @@
       <c r="U181" t="s">
         <v>231</v>
       </c>
+      <c r="AH181" s="8">
+        <v>300000</v>
+      </c>
       <c r="AI181" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="182" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B182" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D182" t="s">
         <v>34</v>
@@ -16687,13 +17231,16 @@
       <c r="I182" t="s">
         <v>51</v>
       </c>
+      <c r="AH182" s="8">
+        <v>300000</v>
+      </c>
       <c r="AI182" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D183" t="s">
         <v>34</v>
@@ -16752,13 +17299,16 @@
       <c r="AE183" t="s">
         <v>39</v>
       </c>
+      <c r="AH183" s="8">
+        <v>250000</v>
+      </c>
       <c r="AI183" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="184" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D184" t="s">
         <v>34</v>
@@ -16775,13 +17325,16 @@
       <c r="I184" t="s">
         <v>51</v>
       </c>
+      <c r="AH184" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI184" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D185" t="s">
         <v>34</v>
@@ -16813,13 +17366,16 @@
       <c r="AE185">
         <v>300</v>
       </c>
+      <c r="AH185" s="8">
+        <v>500000</v>
+      </c>
       <c r="AI185" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="186" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
@@ -16848,13 +17404,16 @@
       <c r="M186" t="s">
         <v>51</v>
       </c>
+      <c r="AH186" s="8">
+        <v>0</v>
+      </c>
       <c r="AI186" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
@@ -16883,13 +17442,16 @@
       <c r="M187" t="s">
         <v>51</v>
       </c>
+      <c r="AH187" s="8">
+        <v>0</v>
+      </c>
       <c r="AI187" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="188" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
@@ -16915,13 +17477,16 @@
       <c r="AC188">
         <v>0</v>
       </c>
+      <c r="AH188" s="8">
+        <v>0</v>
+      </c>
       <c r="AI188" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
@@ -16938,13 +17503,16 @@
       <c r="I189" t="s">
         <v>51</v>
       </c>
+      <c r="AH189" s="8">
+        <v>0</v>
+      </c>
       <c r="AI189" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B190" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
@@ -16961,13 +17529,16 @@
       <c r="I190" t="s">
         <v>51</v>
       </c>
+      <c r="AH190" s="8">
+        <v>0</v>
+      </c>
       <c r="AI190" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B191" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
@@ -16984,13 +17555,16 @@
       <c r="I191" t="s">
         <v>51</v>
       </c>
+      <c r="AH191" s="8">
+        <v>0</v>
+      </c>
       <c r="AI191" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
@@ -17007,13 +17581,16 @@
       <c r="I192" t="s">
         <v>51</v>
       </c>
+      <c r="AH192" s="8">
+        <v>0</v>
+      </c>
       <c r="AI192" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="193" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
@@ -17030,13 +17607,16 @@
       <c r="I193" t="s">
         <v>51</v>
       </c>
+      <c r="AH193" s="8">
+        <v>0</v>
+      </c>
       <c r="AI193" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="194" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B194" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
@@ -17053,13 +17633,16 @@
       <c r="I194" t="s">
         <v>63</v>
       </c>
+      <c r="AH194" s="8">
+        <v>0</v>
+      </c>
       <c r="AI194" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D195" s="4">
         <v>300</v>
@@ -17085,13 +17668,16 @@
       <c r="AG195" t="s">
         <v>260</v>
       </c>
+      <c r="AH195" s="8">
+        <v>0</v>
+      </c>
       <c r="AI195" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="196" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B196" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D196" s="4">
         <v>300</v>
@@ -17108,13 +17694,16 @@
       <c r="I196" t="s">
         <v>51</v>
       </c>
+      <c r="AH196" s="8">
+        <v>0</v>
+      </c>
       <c r="AI196" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="197" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D197" s="4">
         <v>300</v>
@@ -17140,13 +17729,16 @@
       <c r="AC197" t="s">
         <v>253</v>
       </c>
+      <c r="AH197" s="8">
+        <v>0</v>
+      </c>
       <c r="AI197" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="198" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B198" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D198" s="4">
         <v>300</v>
@@ -17163,13 +17755,16 @@
       <c r="I198" t="s">
         <v>51</v>
       </c>
+      <c r="AH198" s="8">
+        <v>0</v>
+      </c>
       <c r="AI198" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="199" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B199" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D199" s="4">
         <v>300</v>
@@ -17186,13 +17781,16 @@
       <c r="I199" t="s">
         <v>51</v>
       </c>
+      <c r="AH199" s="8">
+        <v>0</v>
+      </c>
       <c r="AI199" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="200" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B200" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D200" s="4">
         <v>300</v>
@@ -17209,13 +17807,16 @@
       <c r="I200" t="s">
         <v>51</v>
       </c>
+      <c r="AH200" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI200" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="201" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D201" s="4">
         <v>300</v>
@@ -17232,13 +17833,16 @@
       <c r="I201" t="s">
         <v>51</v>
       </c>
+      <c r="AH201" s="8">
+        <v>700000</v>
+      </c>
       <c r="AI201" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="202" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B202" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D202" s="4">
         <v>500</v>
@@ -17255,13 +17859,16 @@
       <c r="I202" t="s">
         <v>51</v>
       </c>
+      <c r="AH202" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI202" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="203" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B203" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D203" s="4">
         <v>588</v>
@@ -17296,13 +17903,16 @@
       <c r="AE203" t="s">
         <v>39</v>
       </c>
+      <c r="AH203" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI203" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B204" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D204" s="4">
         <v>600</v>
@@ -17319,13 +17929,16 @@
       <c r="I204" t="s">
         <v>51</v>
       </c>
+      <c r="AH204" s="8">
+        <v>0</v>
+      </c>
       <c r="AI204" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="205" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B205" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D205" s="4">
         <v>600</v>
@@ -17342,13 +17955,16 @@
       <c r="I205" t="s">
         <v>51</v>
       </c>
+      <c r="AH205" s="8">
+        <v>0</v>
+      </c>
       <c r="AI205" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="206" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B206" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D206" s="4">
         <v>600</v>
@@ -17377,13 +17993,16 @@
       <c r="U206" t="s">
         <v>217</v>
       </c>
+      <c r="AH206" s="8">
+        <v>0</v>
+      </c>
       <c r="AI206" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="207" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B207" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D207" s="4">
         <v>600</v>
@@ -17409,13 +18028,16 @@
       <c r="AC207">
         <v>0</v>
       </c>
+      <c r="AH207" s="8">
+        <v>0</v>
+      </c>
       <c r="AI207" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D208" s="4">
         <v>600</v>
@@ -17444,13 +18066,16 @@
       <c r="Q208" t="s">
         <v>205</v>
       </c>
+      <c r="AH208" s="8">
+        <v>0</v>
+      </c>
       <c r="AI208" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="209" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B209" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D209" s="4">
         <v>600</v>
@@ -17467,13 +18092,16 @@
       <c r="I209" t="s">
         <v>51</v>
       </c>
+      <c r="AH209" s="8">
+        <v>500000</v>
+      </c>
       <c r="AI209" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B210" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D210" s="4">
         <v>800</v>
@@ -17502,13 +18130,16 @@
       <c r="M210" t="s">
         <v>173</v>
       </c>
+      <c r="AH210" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI210" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B211" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D211" s="4">
         <v>888</v>
@@ -17525,13 +18156,16 @@
       <c r="I211" t="s">
         <v>51</v>
       </c>
+      <c r="AH211" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI211" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="212" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B212" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D212" s="4">
         <v>900</v>
@@ -17548,13 +18182,16 @@
       <c r="I212" t="s">
         <v>51</v>
       </c>
+      <c r="AH212" s="8">
+        <v>0</v>
+      </c>
       <c r="AI212" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B213" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D213" s="4">
         <v>900</v>
@@ -17571,13 +18208,16 @@
       <c r="I213" t="s">
         <v>51</v>
       </c>
+      <c r="AH213" s="8">
+        <v>0</v>
+      </c>
       <c r="AI213" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D214" s="4">
         <v>1000</v>
@@ -17606,13 +18246,16 @@
       <c r="Q214" t="s">
         <v>207</v>
       </c>
+      <c r="AH214" s="8">
+        <v>0</v>
+      </c>
       <c r="AI214" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="215" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B215" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D215" s="4">
         <v>1000</v>
@@ -17629,13 +18272,16 @@
       <c r="I215" t="s">
         <v>51</v>
       </c>
+      <c r="AH215" s="8">
+        <v>0</v>
+      </c>
       <c r="AI215" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="216" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D216" s="4">
         <v>1000</v>
@@ -17652,13 +18298,16 @@
       <c r="I216" t="s">
         <v>51</v>
       </c>
+      <c r="AH216" s="8">
+        <v>0</v>
+      </c>
       <c r="AI216" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B217" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D217" s="4">
         <v>1000</v>
@@ -17675,13 +18324,16 @@
       <c r="I217" t="s">
         <v>51</v>
       </c>
+      <c r="AH217" s="8">
+        <v>0</v>
+      </c>
       <c r="AI217" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="218" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B218" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D218" s="4">
         <v>1000</v>
@@ -17698,13 +18350,16 @@
       <c r="I218" t="s">
         <v>51</v>
       </c>
+      <c r="AH218" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI218" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="219" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B219" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D219" s="4">
         <v>1000</v>
@@ -17721,13 +18376,16 @@
       <c r="I219" t="s">
         <v>51</v>
       </c>
+      <c r="AH219" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI219" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="220" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B220" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D220" s="4">
         <v>1200</v>
@@ -17744,13 +18402,16 @@
       <c r="I220" t="s">
         <v>51</v>
       </c>
+      <c r="AH220" s="8">
+        <v>0</v>
+      </c>
       <c r="AI220" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="221" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B221" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D221" s="4">
         <v>1200</v>
@@ -17779,13 +18440,16 @@
       <c r="U221" t="s">
         <v>223</v>
       </c>
+      <c r="AH221" s="8">
+        <v>0</v>
+      </c>
       <c r="AI221" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="222" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B222" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D222" s="4">
         <v>1200</v>
@@ -17814,13 +18478,16 @@
       <c r="Q222" t="s">
         <v>203</v>
       </c>
+      <c r="AH222" s="8">
+        <v>0</v>
+      </c>
       <c r="AI222" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="223" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B223" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D223" s="4">
         <v>1200</v>
@@ -17837,13 +18504,16 @@
       <c r="I223" t="s">
         <v>51</v>
       </c>
+      <c r="AH223" s="8">
+        <v>0</v>
+      </c>
       <c r="AI223" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="224" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B224" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D224" s="4">
         <v>1200</v>
@@ -17872,13 +18542,16 @@
       <c r="U224" t="s">
         <v>223</v>
       </c>
+      <c r="AH224" s="8">
+        <v>0</v>
+      </c>
       <c r="AI224" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="225" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D225" s="4">
         <v>1200</v>
@@ -17907,13 +18580,16 @@
       <c r="Q225" t="s">
         <v>203</v>
       </c>
+      <c r="AH225" s="8">
+        <v>0</v>
+      </c>
       <c r="AI225" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="226" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B226" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D226" s="4">
         <v>1200</v>
@@ -17939,13 +18615,16 @@
       <c r="AC226">
         <v>0</v>
       </c>
+      <c r="AH226" s="8">
+        <v>0</v>
+      </c>
       <c r="AI226" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="227" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B227" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D227" s="4">
         <v>1200</v>
@@ -17971,13 +18650,16 @@
       <c r="AC227">
         <v>0</v>
       </c>
+      <c r="AH227" s="8">
+        <v>0</v>
+      </c>
       <c r="AI227" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B228" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D228" s="4">
         <v>1200</v>
@@ -17994,13 +18676,16 @@
       <c r="I228" t="s">
         <v>51</v>
       </c>
+      <c r="AH228" s="8">
+        <v>0</v>
+      </c>
       <c r="AI228" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B229" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D229" s="4">
         <v>1200</v>
@@ -18017,13 +18702,16 @@
       <c r="I229" t="s">
         <v>51</v>
       </c>
+      <c r="AH229" s="8">
+        <v>0</v>
+      </c>
       <c r="AI229" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="230" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B230" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D230" s="4">
         <v>1200</v>
@@ -18040,13 +18728,16 @@
       <c r="I230" t="s">
         <v>51</v>
       </c>
+      <c r="AH230" s="8">
+        <v>0</v>
+      </c>
       <c r="AI230" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D231" s="4">
         <v>1200</v>
@@ -18075,13 +18766,16 @@
       <c r="Q231" t="s">
         <v>204</v>
       </c>
+      <c r="AH231" s="8">
+        <v>0</v>
+      </c>
       <c r="AI231" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="232" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B232" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D232" s="4">
         <v>1200</v>
@@ -18098,13 +18792,16 @@
       <c r="I232" t="s">
         <v>51</v>
       </c>
+      <c r="AH232" s="8">
+        <v>0</v>
+      </c>
       <c r="AI232" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="233" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B233" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D233" s="4">
         <v>1500</v>
@@ -18121,13 +18818,16 @@
       <c r="I233" t="s">
         <v>51</v>
       </c>
+      <c r="AH233" s="8">
+        <v>0</v>
+      </c>
       <c r="AI233" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="234" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B234" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D234" s="4">
         <v>1500</v>
@@ -18144,13 +18844,16 @@
       <c r="I234" t="s">
         <v>51</v>
       </c>
+      <c r="AH234" s="8">
+        <v>0</v>
+      </c>
       <c r="AI234" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B235" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D235" s="4">
         <v>1500</v>
@@ -18167,13 +18870,16 @@
       <c r="I235" t="s">
         <v>51</v>
       </c>
+      <c r="AH235" s="8">
+        <v>0</v>
+      </c>
       <c r="AI235" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B236" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D236" s="4">
         <v>1500</v>
@@ -18190,13 +18896,16 @@
       <c r="I236" t="s">
         <v>51</v>
       </c>
+      <c r="AH236" s="8">
+        <v>0</v>
+      </c>
       <c r="AI236" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B237" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D237" s="4">
         <v>1500</v>
@@ -18213,13 +18922,16 @@
       <c r="I237" t="s">
         <v>51</v>
       </c>
+      <c r="AH237" s="8">
+        <v>0</v>
+      </c>
       <c r="AI237" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="238" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B238" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D238" s="4">
         <v>1500</v>
@@ -18236,13 +18948,16 @@
       <c r="I238" t="s">
         <v>51</v>
       </c>
+      <c r="AH238" s="8">
+        <v>0</v>
+      </c>
       <c r="AI238" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B239" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D239" s="4">
         <v>1500</v>
@@ -18259,13 +18974,16 @@
       <c r="I239" t="s">
         <v>51</v>
       </c>
+      <c r="AH239" s="8">
+        <v>0</v>
+      </c>
       <c r="AI239" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="240" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B240" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D240" s="4">
         <v>1500</v>
@@ -18282,13 +19000,16 @@
       <c r="I240" t="s">
         <v>51</v>
       </c>
+      <c r="AH240" s="8">
+        <v>250000</v>
+      </c>
       <c r="AI240" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="241" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B241" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D241" s="4">
         <v>1500</v>
@@ -18317,13 +19038,16 @@
       <c r="Q241" t="s">
         <v>202</v>
       </c>
+      <c r="AH241" s="8">
+        <v>300000</v>
+      </c>
       <c r="AI241" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="242" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B242" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D242" s="4">
         <v>1500</v>
@@ -18340,13 +19064,16 @@
       <c r="I242" t="s">
         <v>51</v>
       </c>
+      <c r="AH242" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI242" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="243" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D243" s="4">
         <v>1500</v>
@@ -18363,13 +19090,16 @@
       <c r="I243" t="s">
         <v>51</v>
       </c>
+      <c r="AH243" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI243" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="244" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B244" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D244" s="4">
         <v>1500</v>
@@ -18398,13 +19128,16 @@
       <c r="U244" t="s">
         <v>63</v>
       </c>
+      <c r="AH244" s="8">
+        <v>700000</v>
+      </c>
       <c r="AI244" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="245" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B245" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D245" s="4">
         <v>1500</v>
@@ -18433,13 +19166,16 @@
       <c r="U245" t="s">
         <v>232</v>
       </c>
+      <c r="AH245" s="8">
+        <v>700000</v>
+      </c>
       <c r="AI245" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="246" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B246" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D246" s="4">
         <v>1500</v>
@@ -18456,13 +19192,16 @@
       <c r="I246" t="s">
         <v>51</v>
       </c>
+      <c r="AH246" s="8">
+        <v>700000</v>
+      </c>
       <c r="AI246" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B247" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D247" s="4">
         <v>1800</v>
@@ -18479,13 +19218,16 @@
       <c r="I247" t="s">
         <v>51</v>
       </c>
+      <c r="AH247" s="8">
+        <v>0</v>
+      </c>
       <c r="AI247" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="248" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B248" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D248" s="4">
         <v>1800</v>
@@ -18502,13 +19244,16 @@
       <c r="I248" t="s">
         <v>51</v>
       </c>
+      <c r="AH248" s="8">
+        <v>0</v>
+      </c>
       <c r="AI248" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B249" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D249" s="4">
         <v>1800</v>
@@ -18525,13 +19270,16 @@
       <c r="I249" t="s">
         <v>51</v>
       </c>
+      <c r="AH249" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI249" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B250" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D250" s="4">
         <v>1800</v>
@@ -18548,13 +19296,16 @@
       <c r="I250" t="s">
         <v>51</v>
       </c>
+      <c r="AH250" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI250" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B251" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D251" s="4">
         <v>1800</v>
@@ -18571,13 +19322,16 @@
       <c r="I251" t="s">
         <v>51</v>
       </c>
+      <c r="AH251" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI251" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="252" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B252" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D252" s="4">
         <v>1800</v>
@@ -18606,13 +19360,16 @@
       <c r="M252" t="s">
         <v>51</v>
       </c>
+      <c r="AH252" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI252" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="253" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B253" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D253" s="4">
         <v>1800</v>
@@ -18641,13 +19398,16 @@
       <c r="M253" t="s">
         <v>51</v>
       </c>
+      <c r="AH253" s="8">
+        <v>500000</v>
+      </c>
       <c r="AI253" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="254" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B254" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D254" s="4">
         <v>1800</v>
@@ -18676,13 +19436,16 @@
       <c r="M254" t="s">
         <v>172</v>
       </c>
+      <c r="AH254" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI254" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="255" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B255" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D255" s="4">
         <v>1800</v>
@@ -18711,13 +19474,16 @@
       <c r="Q255" t="s">
         <v>208</v>
       </c>
+      <c r="AH255" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI255" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="256" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B256" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D256" s="4">
         <v>1800</v>
@@ -18734,13 +19500,16 @@
       <c r="I256" t="s">
         <v>51</v>
       </c>
+      <c r="AH256" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI256" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="257" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B257" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D257" s="4">
         <v>1800</v>
@@ -18757,13 +19526,16 @@
       <c r="I257" t="s">
         <v>63</v>
       </c>
+      <c r="AH257" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI257" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="258" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B258" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D258" s="4">
         <v>1800</v>
@@ -18780,13 +19552,16 @@
       <c r="I258" t="s">
         <v>63</v>
       </c>
+      <c r="AH258" s="8">
+        <v>800000</v>
+      </c>
       <c r="AI258" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B259" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D259" s="4">
         <v>2000</v>
@@ -18815,13 +19590,16 @@
       <c r="M259" t="s">
         <v>51</v>
       </c>
+      <c r="AH259" s="8">
+        <v>400000</v>
+      </c>
       <c r="AI259" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="260" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B260" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D260" s="4">
         <v>2000</v>
@@ -18838,13 +19616,16 @@
       <c r="I260" t="s">
         <v>51</v>
       </c>
+      <c r="AH260" s="8">
+        <v>650000</v>
+      </c>
       <c r="AI260" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B261" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D261" s="4">
         <v>2400</v>
@@ -18873,13 +19654,16 @@
       <c r="U261" t="s">
         <v>233</v>
       </c>
+      <c r="AH261" s="8">
+        <v>0</v>
+      </c>
       <c r="AI261" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="262" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B262" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D262" s="4">
         <v>2400</v>
@@ -18914,13 +19698,16 @@
       <c r="AE262" t="s">
         <v>39</v>
       </c>
+      <c r="AH262" s="8">
+        <v>0</v>
+      </c>
       <c r="AI262" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B263" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D263" s="4">
         <v>2400</v>
@@ -18949,13 +19736,16 @@
       <c r="M263" t="s">
         <v>173</v>
       </c>
+      <c r="AH263" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI263" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B264" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D264" s="4">
         <v>2400</v>
@@ -19008,13 +19798,16 @@
       <c r="U264" t="s">
         <v>234</v>
       </c>
+      <c r="AH264" s="8">
+        <v>220000</v>
+      </c>
       <c r="AI264" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B265" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D265" s="4">
         <v>3000</v>
@@ -19043,13 +19836,16 @@
       <c r="AC265" t="s">
         <v>63</v>
       </c>
+      <c r="AH265" s="8">
+        <v>0</v>
+      </c>
       <c r="AI265" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="266" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B266" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D266" s="4">
         <v>3000</v>
@@ -19066,13 +19862,16 @@
       <c r="I266" t="s">
         <v>51</v>
       </c>
+      <c r="AH266" s="8">
+        <v>0</v>
+      </c>
       <c r="AI266" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B267" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D267" s="4">
         <v>3000</v>
@@ -19089,13 +19888,16 @@
       <c r="I267" t="s">
         <v>51</v>
       </c>
+      <c r="AH267" s="8">
+        <v>0</v>
+      </c>
       <c r="AI267" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B268" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D268" s="4">
         <v>3000</v>
@@ -19112,13 +19914,16 @@
       <c r="I268" t="s">
         <v>51</v>
       </c>
+      <c r="AH268" s="8">
+        <v>0</v>
+      </c>
       <c r="AI268" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="269" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B269" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D269" s="4">
         <v>3000</v>
@@ -19135,13 +19940,16 @@
       <c r="I269" t="s">
         <v>51</v>
       </c>
+      <c r="AH269" s="8">
+        <v>0</v>
+      </c>
       <c r="AI269" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="270" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B270" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D270" s="4">
         <v>3000</v>
@@ -19170,13 +19978,16 @@
       <c r="M270" t="s">
         <v>174</v>
       </c>
+      <c r="AH270" s="8">
+        <v>500000</v>
+      </c>
       <c r="AI270" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="271" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B271" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D271" s="4">
         <v>3000</v>
@@ -19205,13 +20016,16 @@
       <c r="M271" t="s">
         <v>175</v>
       </c>
+      <c r="AH271" s="8">
+        <v>500000</v>
+      </c>
       <c r="AI271" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="272" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B272" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D272" s="4">
         <v>3000</v>
@@ -19228,13 +20042,16 @@
       <c r="I272" t="s">
         <v>51</v>
       </c>
+      <c r="AH272" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI272" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B273" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D273" s="4">
         <v>3000</v>
@@ -19263,13 +20080,16 @@
       <c r="M273" t="s">
         <v>51</v>
       </c>
+      <c r="AH273" s="8">
+        <v>700000</v>
+      </c>
       <c r="AI273" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="274" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B274" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D274" s="4">
         <v>3600</v>
@@ -19304,13 +20124,16 @@
       <c r="AE274" t="s">
         <v>39</v>
       </c>
+      <c r="AH274" s="8">
+        <v>220000</v>
+      </c>
       <c r="AI274" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B275" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D275" s="4">
         <v>5000</v>
@@ -19339,13 +20162,16 @@
       <c r="M275" t="s">
         <v>51</v>
       </c>
+      <c r="AH275" s="8">
+        <v>0</v>
+      </c>
       <c r="AI275" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B276" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D276" s="4">
         <v>5000</v>
@@ -19362,13 +20188,16 @@
       <c r="I276" t="s">
         <v>51</v>
       </c>
+      <c r="AH276" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI276" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="277" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B277" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D277" s="4">
         <v>6600</v>
@@ -19406,13 +20235,16 @@
       <c r="AF277" t="s">
         <v>265</v>
       </c>
+      <c r="AH277" s="8">
+        <v>0</v>
+      </c>
       <c r="AI277" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="278" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B278" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D278" s="4">
         <v>8000</v>
@@ -19441,13 +20273,16 @@
       <c r="M278" t="s">
         <v>172</v>
       </c>
+      <c r="AH278" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI278" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B279" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D279" s="4">
         <v>8000</v>
@@ -19464,13 +20299,16 @@
       <c r="I279" t="s">
         <v>51</v>
       </c>
+      <c r="AH279" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI279" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="280" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B280" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D280" s="4">
         <v>8500</v>
@@ -19499,13 +20337,16 @@
       <c r="M280" t="s">
         <v>174</v>
       </c>
+      <c r="AH280" s="8">
+        <v>600000</v>
+      </c>
       <c r="AI280" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B281" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D281" s="4">
         <v>12000</v>
@@ -19534,13 +20375,16 @@
       <c r="M281" t="s">
         <v>169</v>
       </c>
+      <c r="AH281" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI281" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="282" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B282" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D282" s="4">
         <v>20000</v>
@@ -19575,13 +20419,16 @@
       <c r="AE282" t="s">
         <v>39</v>
       </c>
+      <c r="AH282" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI282" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="283" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B283" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D283" s="4">
         <v>20000</v>
@@ -19610,13 +20457,16 @@
       <c r="M283" t="s">
         <v>173</v>
       </c>
+      <c r="AH283" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI283" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="284" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B284" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D284" s="4">
         <v>20000</v>
@@ -19645,13 +20495,16 @@
       <c r="M284" t="s">
         <v>169</v>
       </c>
+      <c r="AH284" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI284" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B285" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D285" s="4">
         <v>24000</v>
@@ -19680,13 +20533,16 @@
       <c r="U285" t="s">
         <v>228</v>
       </c>
+      <c r="AH285" s="8">
+        <v>1400000</v>
+      </c>
       <c r="AI285" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="286" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B286" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D286" s="4">
         <v>35000</v>
@@ -19715,13 +20571,16 @@
       <c r="M286" t="s">
         <v>51</v>
       </c>
+      <c r="AH286" s="8">
+        <v>0</v>
+      </c>
       <c r="AI286" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B287" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D287" t="s">
         <v>34</v>
@@ -19747,13 +20606,16 @@
       <c r="AG287" t="s">
         <v>267</v>
       </c>
+      <c r="AH287" s="8">
+        <v>240000</v>
+      </c>
       <c r="AI287" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B288" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D288" t="s">
         <v>34</v>
@@ -19770,13 +20632,16 @@
       <c r="I288" t="s">
         <v>63</v>
       </c>
+      <c r="AH288" s="8">
+        <v>0</v>
+      </c>
       <c r="AI288" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B289" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D289" t="s">
         <v>34</v>
@@ -19793,13 +20658,16 @@
       <c r="I289" t="s">
         <v>63</v>
       </c>
+      <c r="AH289" s="8">
+        <v>0</v>
+      </c>
       <c r="AI289" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="290" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B290" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D290" t="s">
         <v>34</v>
@@ -19816,13 +20684,16 @@
       <c r="I290" t="s">
         <v>63</v>
       </c>
+      <c r="AH290" s="8">
+        <v>0</v>
+      </c>
       <c r="AI290" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="291" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B291" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D291" t="s">
         <v>34</v>
@@ -19857,13 +20728,16 @@
       <c r="AE291" t="s">
         <v>39</v>
       </c>
+      <c r="AH291" s="8">
+        <v>0</v>
+      </c>
       <c r="AI291" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B292" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D292" s="4">
         <v>300</v>
@@ -19880,13 +20754,16 @@
       <c r="I292" t="s">
         <v>63</v>
       </c>
+      <c r="AH292" s="8">
+        <v>0</v>
+      </c>
       <c r="AI292" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B293" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D293" s="4">
         <v>1800</v>
@@ -19903,13 +20780,16 @@
       <c r="I293" t="s">
         <v>63</v>
       </c>
+      <c r="AH293" s="8">
+        <v>200000</v>
+      </c>
       <c r="AI293" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="294" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B294" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D294" s="4">
         <v>1800</v>
@@ -19938,13 +20818,16 @@
       <c r="M294">
         <v>0</v>
       </c>
+      <c r="AH294" s="8">
+        <v>0</v>
+      </c>
       <c r="AI294" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="295" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B295" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D295" s="4">
         <v>2400</v>
@@ -19973,13 +20856,16 @@
       <c r="M295">
         <v>0</v>
       </c>
+      <c r="AH295" s="8">
+        <v>0</v>
+      </c>
       <c r="AI295" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="296" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B296" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D296" s="4">
         <v>5000</v>
@@ -19996,13 +20882,16 @@
       <c r="I296" t="s">
         <v>63</v>
       </c>
+      <c r="AH296" s="8">
+        <v>2000000</v>
+      </c>
       <c r="AI296" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="297" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B297" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D297" s="4">
         <v>5000</v>
@@ -20031,8 +20920,11 @@
       <c r="M297">
         <v>0</v>
       </c>
+      <c r="AH297" s="8">
+        <v>0</v>
+      </c>
       <c r="AI297" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="298" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -22850,7 +23742,6 @@
       <c r="AI998" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B998"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
